--- a/SRS ENTREGA/Descripción Requerimientos.xlsx
+++ b/SRS ENTREGA/Descripción Requerimientos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="14070" windowHeight="5235"/>
@@ -1429,89 +1429,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1520,6 +1442,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1529,97 +1508,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1628,40 +1592,76 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1975,19 +1975,19 @@
       <c r="A1" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
       <c r="K1" s="7" t="s">
         <v>252</v>
       </c>
@@ -1999,68 +1999,68 @@
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
       <c r="K2" s="8"/>
       <c r="L2" s="11"/>
     </row>
     <row r="3" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="33" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="8">
         <v>1</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="33" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
       <c r="K4" s="8">
         <f t="shared" ref="K4:K75" si="0">K3+1</f>
         <v>2</v>
@@ -2070,22 +2070,22 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="33" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2095,22 +2095,22 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="33" t="s">
         <v>267</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2120,22 +2120,22 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2145,22 +2145,22 @@
       </c>
     </row>
     <row r="8" spans="1:17" ht="33" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="52"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
       <c r="K8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2170,46 +2170,46 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="33" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="50" t="s">
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="51"/>
-      <c r="J9" s="52"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
       <c r="K9" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="L9" s="60" t="s">
+      <c r="L9" s="23" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="37" t="s">
         <v>281</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="18" t="s">
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="8">
         <f>K8+1</f>
         <v>7</v>
@@ -2219,22 +2219,22 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="33" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
       <c r="K11" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2244,47 +2244,47 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A12" s="62" t="s">
+      <c r="A12" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="33" t="s">
         <v>273</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18" t="s">
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="L12" s="58" t="s">
+      <c r="L12" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2294,70 +2294,70 @@
       </c>
     </row>
     <row r="14" spans="1:17" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="47" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="I14" s="48"/>
-      <c r="J14" s="49"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="L14" s="60" t="s">
+      <c r="L14" s="23" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="39.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="47" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="49"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="L15" s="60" t="s">
+      <c r="L15" s="23" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="19" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
       <c r="K16" s="8">
         <f>K13+1</f>
         <v>11</v>
@@ -2367,22 +2367,22 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="19" t="s">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
       <c r="K17" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2392,22 +2392,22 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
       <c r="K18" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2417,22 +2417,22 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="62" t="s">
+      <c r="A19" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
       <c r="K19" s="8">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2442,22 +2442,22 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="19" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
       <c r="K20" s="8">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2467,22 +2467,22 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18" t="s">
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2492,47 +2492,47 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18" t="s">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="L22" s="58" t="s">
+      <c r="L22" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
       <c r="K23" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2542,22 +2542,22 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="45" t="s">
         <v>296</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18" t="s">
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2567,47 +2567,47 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18" t="s">
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="L25" s="58" t="s">
+      <c r="L25" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A26" s="62" t="s">
+      <c r="A26" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2617,22 +2617,22 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="33" t="s">
         <v>299</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18" t="s">
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2642,22 +2642,22 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="18" t="s">
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2667,46 +2667,46 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="18" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="L29" s="60" t="s">
+      <c r="L29" s="23" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18" t="s">
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
       <c r="K30" s="8">
         <f>K28+1</f>
         <v>24</v>
@@ -2716,22 +2716,22 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A31" s="62" t="s">
+      <c r="A31" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18" t="s">
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2741,22 +2741,22 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="19" t="s">
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
       <c r="K32" s="8">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2766,22 +2766,22 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
       <c r="K33" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2791,22 +2791,22 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="19.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="18" t="s">
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
       <c r="K34" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2816,22 +2816,22 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="18" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
       <c r="K35" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2841,22 +2841,22 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="18" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
       <c r="K36" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2866,46 +2866,46 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="34.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A37" s="62" t="s">
+      <c r="A37" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="40" t="s">
         <v>305</v>
       </c>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="18" t="s">
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
       <c r="K37" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="L37" s="60" t="s">
+      <c r="L37" s="23" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="39" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A38" s="62" t="s">
+      <c r="A38" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="18" t="s">
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
       <c r="K38" s="8">
         <f>K36+1</f>
         <v>31</v>
@@ -2915,22 +2915,22 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="18" t="s">
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
       <c r="K39" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2940,22 +2940,22 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A40" s="62" t="s">
+      <c r="A40" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18" t="s">
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="33"/>
       <c r="K40" s="8">
         <f>K39+1</f>
         <v>33</v>
@@ -2965,22 +2965,22 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A41" s="62" t="s">
+      <c r="A41" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="19" t="s">
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
       <c r="K41" s="8">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2990,47 +2990,47 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="19" t="s">
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
       <c r="K42" s="8">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="L42" s="58" t="s">
+      <c r="L42" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A43" s="62" t="s">
+      <c r="A43" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="19" t="s">
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="31"/>
       <c r="K43" s="8">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3040,22 +3040,22 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A44" s="62" t="s">
+      <c r="A44" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="19" t="s">
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
       <c r="K44" s="8">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3065,22 +3065,22 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="34.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="C45" s="48"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="48"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="19" t="s">
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
       <c r="K45" s="8">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3090,22 +3090,22 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A46" s="62" t="s">
+      <c r="A46" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="19" t="s">
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
       <c r="K46" s="8">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3115,47 +3115,47 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="19" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
       <c r="K47" s="8">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="L47" s="58" t="s">
+      <c r="L47" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="19" t="s">
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
       <c r="K48" s="8">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3165,22 +3165,22 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A49" s="62" t="s">
+      <c r="A49" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="19" t="s">
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
       <c r="K49" s="8">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3190,72 +3190,72 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A50" s="62" t="s">
+      <c r="A50" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="19" t="s">
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
       <c r="K50" s="8">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="L50" s="60" t="s">
+      <c r="L50" s="23" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="18.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="19" t="s">
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
       <c r="K51" s="8">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="L51" s="60" t="s">
+      <c r="L51" s="23" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A52" s="62" t="s">
+      <c r="A52" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="C52" s="48"/>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="18" t="s">
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
       <c r="K52" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3265,22 +3265,22 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A53" s="62" t="s">
+      <c r="A53" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16" t="s">
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
       <c r="K53" s="8">
         <f>K52+1</f>
         <v>46</v>
@@ -3290,47 +3290,47 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A54" s="62" t="s">
+      <c r="A54" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16" t="s">
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
       <c r="K54" s="8">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="L54" s="58" t="s">
+      <c r="L54" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A55" s="62" t="s">
+      <c r="A55" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16" t="s">
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
       <c r="K55" s="8">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3340,22 +3340,22 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A56" s="62" t="s">
+      <c r="A56" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="31" t="s">
         <v>319</v>
       </c>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="16" t="s">
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
       <c r="K56" s="8">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3365,22 +3365,22 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A57" s="40" t="s">
+      <c r="A57" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16" t="s">
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32" t="s">
         <v>124</v>
       </c>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
       <c r="K57" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3390,22 +3390,22 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="16" t="s">
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
       <c r="K58" s="8">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3415,46 +3415,46 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A59" s="40" t="s">
+      <c r="A59" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="55"/>
-      <c r="H59" s="19" t="s">
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
       <c r="K59" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="L59" s="60" t="s">
+      <c r="L59" s="23" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A60" s="40" t="s">
+      <c r="A60" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="19" t="s">
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
       <c r="K60" s="11">
         <f>K58+1</f>
         <v>52</v>
@@ -3464,72 +3464,72 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A61" s="40" t="s">
+      <c r="A61" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="18" t="s">
+      <c r="B61" s="33" t="s">
         <v>323</v>
       </c>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18" t="s">
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="33"/>
       <c r="K61" s="8">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="L61" s="58" t="s">
+      <c r="L61" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A62" s="40" t="s">
+      <c r="A62" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="18" t="s">
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="33"/>
       <c r="K62" s="8">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="L62" s="58" t="s">
+      <c r="L62" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A63" s="40" t="s">
+      <c r="A63" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="18" t="s">
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
       <c r="K63" s="8">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3539,70 +3539,70 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A64" s="40" t="s">
+      <c r="A64" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="18" t="s">
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="33"/>
       <c r="K64" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="L64" s="60" t="s">
+      <c r="L64" s="23" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A65" s="40" t="s">
+      <c r="A65" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="18" t="s">
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="33"/>
       <c r="K65" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="L65" s="60" t="s">
+      <c r="L65" s="23" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A66" s="40" t="s">
+      <c r="A66" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="18" t="s">
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="33"/>
       <c r="K66" s="8">
         <f>K63+1</f>
         <v>56</v>
@@ -3612,22 +3612,22 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="19" t="s">
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="31"/>
       <c r="K67" s="8">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -3637,22 +3637,22 @@
       </c>
     </row>
     <row r="68" spans="1:12" s="1" customFormat="1" ht="36.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="20" t="s">
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
       <c r="K68" s="8">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3662,22 +3662,22 @@
       </c>
     </row>
     <row r="69" spans="1:12" s="1" customFormat="1" ht="32.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="20" t="s">
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
       <c r="K69" s="8">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3687,22 +3687,22 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A70" s="61" t="s">
+      <c r="A70" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="53" t="s">
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="I70" s="54"/>
-      <c r="J70" s="55"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="30"/>
       <c r="K70" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3712,22 +3712,22 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A71" s="61" t="s">
+      <c r="A71" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="19" t="s">
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
       <c r="K71" s="8">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3737,22 +3737,22 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A72" s="61" t="s">
+      <c r="A72" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="33" t="s">
         <v>339</v>
       </c>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18" t="s">
+      <c r="C72" s="33"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="33"/>
       <c r="K72" s="8">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3762,22 +3762,22 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A73" s="61" t="s">
+      <c r="A73" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18" t="s">
+      <c r="C73" s="33"/>
+      <c r="D73" s="33"/>
+      <c r="E73" s="33"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
+      <c r="I73" s="33"/>
+      <c r="J73" s="33"/>
       <c r="K73" s="8">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3787,147 +3787,147 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A74" s="61" t="s">
+      <c r="A74" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="16" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
       <c r="K74" s="8">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="L74" s="58" t="s">
+      <c r="L74" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A75" s="61" t="s">
+      <c r="A75" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B75" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="16" t="s">
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
       <c r="K75" s="8">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="L75" s="58" t="s">
+      <c r="L75" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A76" s="61" t="s">
+      <c r="A76" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="16" t="s">
+      <c r="C76" s="33"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="33"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
       <c r="K76" s="8">
         <f t="shared" ref="K76:K127" si="1">K75+1</f>
         <v>66</v>
       </c>
-      <c r="L76" s="58" t="s">
+      <c r="L76" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="16" t="s">
+      <c r="C77" s="33"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
       <c r="K77" s="8">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="L77" s="58" t="s">
+      <c r="L77" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A78" s="61" t="s">
+      <c r="A78" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18" t="s">
+      <c r="C78" s="33"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
       <c r="K78" s="8">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="L78" s="58" t="s">
+      <c r="L78" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A79" s="39" t="s">
+      <c r="A79" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18" t="s">
+      <c r="C79" s="33"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
       <c r="K79" s="8">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3937,22 +3937,22 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A80" s="39" t="s">
+      <c r="A80" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18" t="s">
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="33"/>
       <c r="K80" s="8">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3962,22 +3962,22 @@
       </c>
     </row>
     <row r="81" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A81" s="39" t="s">
+      <c r="A81" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18" t="s">
+      <c r="C81" s="33"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="33"/>
+      <c r="H81" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
+      <c r="I81" s="33"/>
+      <c r="J81" s="33"/>
       <c r="K81" s="8">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3987,22 +3987,22 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A82" s="39" t="s">
+      <c r="A82" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18" t="s">
+      <c r="C82" s="33"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
+      <c r="I82" s="33"/>
+      <c r="J82" s="33"/>
       <c r="K82" s="8">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4012,22 +4012,22 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18" t="s">
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
       <c r="K83" s="8">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4037,22 +4037,22 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A84" s="39" t="s">
+      <c r="A84" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="19" t="s">
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="31"/>
       <c r="K84" s="8">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -4062,47 +4062,47 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A85" s="39" t="s">
+      <c r="A85" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="20" t="s">
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
       <c r="K85" s="8">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="L85" s="58" t="s">
+      <c r="L85" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A86" s="39" t="s">
+      <c r="A86" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="33" t="s">
         <v>346</v>
       </c>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18" t="s">
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
       <c r="K86" s="8">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4112,22 +4112,22 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A87" s="39" t="s">
+      <c r="A87" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18" t="s">
+      <c r="C87" s="33"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="33"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
+      <c r="I87" s="33"/>
+      <c r="J87" s="33"/>
       <c r="K87" s="8">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4137,22 +4137,22 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A88" s="39" t="s">
+      <c r="A88" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18" t="s">
+      <c r="C88" s="33"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="33"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="33"/>
+      <c r="H88" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
+      <c r="I88" s="33"/>
+      <c r="J88" s="33"/>
       <c r="K88" s="8">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4162,47 +4162,47 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A89" s="39" t="s">
+      <c r="A89" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18" t="s">
+      <c r="C89" s="33"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="33"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
       <c r="K89" s="8">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="L89" s="58" t="s">
+      <c r="L89" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A90" s="61" t="s">
+      <c r="A90" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18" t="s">
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="33"/>
       <c r="K90" s="8">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4212,46 +4212,46 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A91" s="61" t="s">
+      <c r="A91" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="34" t="s">
         <v>350</v>
       </c>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="18" t="s">
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
+      <c r="I91" s="33"/>
+      <c r="J91" s="33"/>
       <c r="K91" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="L91" s="60" t="s">
+      <c r="L91" s="23" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A92" s="61" t="s">
+      <c r="A92" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="B92" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18" t="s">
+      <c r="C92" s="33"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="33"/>
+      <c r="H92" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
+      <c r="I92" s="33"/>
+      <c r="J92" s="33"/>
       <c r="K92" s="8">
         <f>K90+1</f>
         <v>81</v>
@@ -4261,22 +4261,22 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A93" s="61" t="s">
+      <c r="A93" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18" t="s">
+      <c r="C93" s="33"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
       <c r="K93" s="8">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4286,22 +4286,22 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A94" s="61" t="s">
+      <c r="A94" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18" t="s">
+      <c r="C94" s="33"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
+      <c r="I94" s="33"/>
+      <c r="J94" s="33"/>
       <c r="K94" s="8">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4311,22 +4311,22 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A95" s="61" t="s">
+      <c r="A95" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18" t="s">
+      <c r="C95" s="33"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="33"/>
+      <c r="F95" s="33"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
+      <c r="I95" s="33"/>
+      <c r="J95" s="33"/>
       <c r="K95" s="8">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4336,22 +4336,22 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A96" s="61" t="s">
+      <c r="A96" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18" t="s">
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
+      <c r="I96" s="33"/>
+      <c r="J96" s="33"/>
       <c r="K96" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4361,22 +4361,22 @@
       </c>
     </row>
     <row r="97" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A97" s="61" t="s">
+      <c r="A97" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18" t="s">
+      <c r="C97" s="33"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
+      <c r="I97" s="33"/>
+      <c r="J97" s="33"/>
       <c r="K97" s="8">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4386,22 +4386,22 @@
       </c>
     </row>
     <row r="98" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A98" s="61" t="s">
+      <c r="A98" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18" t="s">
+      <c r="C98" s="33"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
+      <c r="F98" s="33"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
+      <c r="I98" s="33"/>
+      <c r="J98" s="33"/>
       <c r="K98" s="8">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4411,22 +4411,22 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A99" s="61" t="s">
+      <c r="A99" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18" t="s">
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
       <c r="K99" s="8">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4436,22 +4436,22 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A100" s="61" t="s">
+      <c r="A100" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18" t="s">
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
       <c r="K100" s="8">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4461,22 +4461,22 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A101" s="61" t="s">
+      <c r="A101" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18" t="s">
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33"/>
       <c r="K101" s="8">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4486,22 +4486,22 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A102" s="61" t="s">
+      <c r="A102" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="19" t="s">
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="31"/>
       <c r="K102" s="8">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -4511,22 +4511,22 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A103" s="61" t="s">
+      <c r="A103" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="B103" s="47" t="s">
+      <c r="B103" s="40" t="s">
         <v>352</v>
       </c>
-      <c r="C103" s="48"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="48"/>
-      <c r="F103" s="48"/>
-      <c r="G103" s="49"/>
-      <c r="H103" s="18" t="s">
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="33"/>
       <c r="K103" s="8">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4536,47 +4536,47 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A104" s="61" t="s">
+      <c r="A104" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18" t="s">
+      <c r="C104" s="33"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
+      <c r="F104" s="33"/>
+      <c r="G104" s="33"/>
+      <c r="H104" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
+      <c r="I104" s="33"/>
+      <c r="J104" s="33"/>
       <c r="K104" s="8">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-      <c r="L104" s="58" t="s">
+      <c r="L104" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A105" s="61" t="s">
+      <c r="A105" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="33" t="s">
         <v>351</v>
       </c>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18" t="s">
+      <c r="C105" s="33"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="33"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
+      <c r="I105" s="33"/>
+      <c r="J105" s="33"/>
       <c r="K105" s="8">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4586,297 +4586,297 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A106" s="61" t="s">
+      <c r="A106" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="16"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="19" t="s">
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="I106" s="19"/>
-      <c r="J106" s="19"/>
+      <c r="I106" s="31"/>
+      <c r="J106" s="31"/>
       <c r="K106" s="8">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="L106" s="58" t="s">
+      <c r="L106" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A107" s="61" t="s">
+      <c r="A107" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="16"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16" t="s">
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="I107" s="16"/>
-      <c r="J107" s="16"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
       <c r="K107" s="8">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="L107" s="58" t="s">
+      <c r="L107" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A108" s="61" t="s">
+      <c r="A108" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="18"/>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="18"/>
-      <c r="G108" s="18"/>
-      <c r="H108" s="18" t="s">
+      <c r="C108" s="33"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="33"/>
+      <c r="G108" s="33"/>
+      <c r="H108" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="I108" s="18"/>
-      <c r="J108" s="18"/>
+      <c r="I108" s="33"/>
+      <c r="J108" s="33"/>
       <c r="K108" s="8">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="L108" s="58" t="s">
+      <c r="L108" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A109" s="61" t="s">
+      <c r="A109" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="18"/>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18" t="s">
+      <c r="C109" s="33"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="33"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
+      <c r="I109" s="33"/>
+      <c r="J109" s="33"/>
       <c r="K109" s="8">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-      <c r="L109" s="58" t="s">
+      <c r="L109" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A110" s="61" t="s">
+      <c r="A110" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="18"/>
-      <c r="G110" s="18"/>
-      <c r="H110" s="18" t="s">
+      <c r="C110" s="33"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="33"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="I110" s="18"/>
-      <c r="J110" s="18"/>
+      <c r="I110" s="33"/>
+      <c r="J110" s="33"/>
       <c r="K110" s="8">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="L110" s="58" t="s">
+      <c r="L110" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A111" s="61" t="s">
+      <c r="A111" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B111" s="33" t="s">
+      <c r="B111" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="33"/>
-      <c r="G111" s="33"/>
-      <c r="H111" s="33" t="s">
+      <c r="C111" s="47"/>
+      <c r="D111" s="47"/>
+      <c r="E111" s="47"/>
+      <c r="F111" s="47"/>
+      <c r="G111" s="47"/>
+      <c r="H111" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="I111" s="33"/>
-      <c r="J111" s="33"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="47"/>
       <c r="K111" s="15">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="L111" s="58" t="s">
+      <c r="L111" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A112" s="61" t="s">
+      <c r="A112" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="B112" s="33" t="s">
+      <c r="B112" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="C112" s="33"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="33"/>
-      <c r="G112" s="33"/>
-      <c r="H112" s="33" t="s">
+      <c r="C112" s="47"/>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="47"/>
+      <c r="G112" s="47"/>
+      <c r="H112" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="I112" s="33"/>
-      <c r="J112" s="33"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="47"/>
       <c r="K112" s="15">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-      <c r="L112" s="58" t="s">
+      <c r="L112" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A113" s="61" t="s">
+      <c r="A113" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="B113" s="33" t="s">
+      <c r="B113" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="C113" s="33"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33" t="s">
+      <c r="C113" s="47"/>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="47"/>
+      <c r="G113" s="47"/>
+      <c r="H113" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="I113" s="33"/>
-      <c r="J113" s="33"/>
+      <c r="I113" s="47"/>
+      <c r="J113" s="47"/>
       <c r="K113" s="15">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-      <c r="L113" s="58" t="s">
+      <c r="L113" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A114" s="61" t="s">
+      <c r="A114" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="B114" s="33" t="s">
+      <c r="B114" s="47" t="s">
         <v>250</v>
       </c>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="33"/>
-      <c r="G114" s="33"/>
-      <c r="H114" s="33" t="s">
+      <c r="C114" s="47"/>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="47"/>
+      <c r="G114" s="47"/>
+      <c r="H114" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="I114" s="33"/>
-      <c r="J114" s="33"/>
+      <c r="I114" s="47"/>
+      <c r="J114" s="47"/>
       <c r="K114" s="15">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="L114" s="58" t="s">
+      <c r="L114" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A115" s="61" t="s">
+      <c r="A115" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B115" s="33" t="s">
+      <c r="B115" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="33"/>
-      <c r="G115" s="33"/>
-      <c r="H115" s="33" t="s">
+      <c r="C115" s="47"/>
+      <c r="D115" s="47"/>
+      <c r="E115" s="47"/>
+      <c r="F115" s="47"/>
+      <c r="G115" s="47"/>
+      <c r="H115" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="I115" s="33"/>
-      <c r="J115" s="33"/>
+      <c r="I115" s="47"/>
+      <c r="J115" s="47"/>
       <c r="K115" s="15">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-      <c r="L115" s="58" t="s">
+      <c r="L115" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A116" s="61" t="s">
+      <c r="A116" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B116" s="33" t="s">
+      <c r="B116" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="33"/>
-      <c r="G116" s="33"/>
-      <c r="H116" s="33" t="s">
+      <c r="C116" s="47"/>
+      <c r="D116" s="47"/>
+      <c r="E116" s="47"/>
+      <c r="F116" s="47"/>
+      <c r="G116" s="47"/>
+      <c r="H116" s="47" t="s">
         <v>230</v>
       </c>
-      <c r="I116" s="33"/>
-      <c r="J116" s="33"/>
+      <c r="I116" s="47"/>
+      <c r="J116" s="47"/>
       <c r="K116" s="15">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="L116" s="58" t="s">
+      <c r="L116" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="117" spans="1:12" s="2" customFormat="1" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A117" s="62" t="s">
+      <c r="A117" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="B117" s="64" t="s">
+      <c r="B117" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C117" s="64"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="64"/>
-      <c r="F117" s="64"/>
-      <c r="G117" s="64"/>
-      <c r="H117" s="33" t="s">
+      <c r="C117" s="56"/>
+      <c r="D117" s="56"/>
+      <c r="E117" s="56"/>
+      <c r="F117" s="56"/>
+      <c r="G117" s="56"/>
+      <c r="H117" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="I117" s="33"/>
-      <c r="J117" s="33"/>
+      <c r="I117" s="47"/>
+      <c r="J117" s="47"/>
       <c r="K117" s="15">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4886,22 +4886,22 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A118" s="61" t="s">
+      <c r="A118" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="B118" s="33" t="s">
+      <c r="B118" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C118" s="33"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33" t="s">
+      <c r="C118" s="47"/>
+      <c r="D118" s="47"/>
+      <c r="E118" s="47"/>
+      <c r="F118" s="47"/>
+      <c r="G118" s="47"/>
+      <c r="H118" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="I118" s="33"/>
-      <c r="J118" s="33"/>
+      <c r="I118" s="47"/>
+      <c r="J118" s="47"/>
       <c r="K118" s="15">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4911,22 +4911,22 @@
       </c>
     </row>
     <row r="119" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A119" s="61" t="s">
+      <c r="A119" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B119" s="33" t="s">
+      <c r="B119" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33" t="s">
+      <c r="C119" s="47"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="47"/>
+      <c r="F119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="I119" s="33"/>
-      <c r="J119" s="33"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="47"/>
       <c r="K119" s="15">
         <f>K118+1</f>
         <v>108</v>
@@ -4936,22 +4936,22 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="33" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A120" s="61" t="s">
+      <c r="A120" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="B120" s="65" t="s">
+      <c r="B120" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C120" s="66"/>
-      <c r="D120" s="66"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="66"/>
-      <c r="G120" s="67"/>
-      <c r="H120" s="68" t="s">
+      <c r="C120" s="58"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="58"/>
+      <c r="G120" s="59"/>
+      <c r="H120" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="I120" s="69"/>
-      <c r="J120" s="70"/>
+      <c r="I120" s="50"/>
+      <c r="J120" s="51"/>
       <c r="K120" s="15">
         <f>K119+1</f>
         <v>109</v>
@@ -4961,22 +4961,22 @@
       </c>
     </row>
     <row r="121" spans="1:12" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A121" s="61" t="s">
+      <c r="A121" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="B121" s="68" t="s">
+      <c r="B121" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="C121" s="69"/>
-      <c r="D121" s="69"/>
-      <c r="E121" s="69"/>
-      <c r="F121" s="69"/>
-      <c r="G121" s="70"/>
-      <c r="H121" s="33" t="s">
+      <c r="C121" s="50"/>
+      <c r="D121" s="50"/>
+      <c r="E121" s="50"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="51"/>
+      <c r="H121" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="I121" s="33"/>
-      <c r="J121" s="33"/>
+      <c r="I121" s="47"/>
+      <c r="J121" s="47"/>
       <c r="K121" s="15">
         <f>K120+1</f>
         <v>110</v>
@@ -4986,22 +4986,22 @@
       </c>
     </row>
     <row r="122" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A122" s="61" t="s">
+      <c r="A122" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="B122" s="33" t="s">
+      <c r="B122" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="33"/>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33" t="s">
+      <c r="C122" s="47"/>
+      <c r="D122" s="47"/>
+      <c r="E122" s="47"/>
+      <c r="F122" s="47"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="I122" s="33"/>
-      <c r="J122" s="33"/>
+      <c r="I122" s="47"/>
+      <c r="J122" s="47"/>
       <c r="K122" s="15">
         <f>K121+1</f>
         <v>111</v>
@@ -5011,47 +5011,47 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A123" s="61" t="s">
+      <c r="A123" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="33" t="s">
+      <c r="B123" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="33"/>
-      <c r="G123" s="33"/>
-      <c r="H123" s="33" t="s">
+      <c r="C123" s="47"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+      <c r="F123" s="47"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="I123" s="33"/>
-      <c r="J123" s="33"/>
+      <c r="I123" s="47"/>
+      <c r="J123" s="47"/>
       <c r="K123" s="15">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="L123" s="58" t="s">
+      <c r="L123" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A124" s="61" t="s">
+      <c r="A124" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="B124" s="71" t="s">
+      <c r="B124" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C124" s="72"/>
-      <c r="D124" s="72"/>
-      <c r="E124" s="72"/>
-      <c r="F124" s="72"/>
-      <c r="G124" s="73"/>
-      <c r="H124" s="33" t="s">
+      <c r="C124" s="54"/>
+      <c r="D124" s="54"/>
+      <c r="E124" s="54"/>
+      <c r="F124" s="54"/>
+      <c r="G124" s="55"/>
+      <c r="H124" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="I124" s="33"/>
-      <c r="J124" s="33"/>
+      <c r="I124" s="47"/>
+      <c r="J124" s="47"/>
       <c r="K124" s="15">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -5061,22 +5061,22 @@
       </c>
     </row>
     <row r="125" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A125" s="61" t="s">
+      <c r="A125" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="B125" s="71" t="s">
+      <c r="B125" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="C125" s="72"/>
-      <c r="D125" s="72"/>
-      <c r="E125" s="72"/>
-      <c r="F125" s="72"/>
-      <c r="G125" s="73"/>
-      <c r="H125" s="33" t="s">
+      <c r="C125" s="54"/>
+      <c r="D125" s="54"/>
+      <c r="E125" s="54"/>
+      <c r="F125" s="54"/>
+      <c r="G125" s="55"/>
+      <c r="H125" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="I125" s="33"/>
-      <c r="J125" s="33"/>
+      <c r="I125" s="47"/>
+      <c r="J125" s="47"/>
       <c r="K125" s="15">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -5086,191 +5086,191 @@
       </c>
     </row>
     <row r="126" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A126" s="61" t="s">
+      <c r="A126" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="B126" s="65" t="s">
+      <c r="B126" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="C126" s="74"/>
-      <c r="D126" s="74"/>
-      <c r="E126" s="74"/>
-      <c r="F126" s="74"/>
-      <c r="G126" s="75"/>
-      <c r="H126" s="76" t="s">
+      <c r="C126" s="60"/>
+      <c r="D126" s="60"/>
+      <c r="E126" s="60"/>
+      <c r="F126" s="60"/>
+      <c r="G126" s="61"/>
+      <c r="H126" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="I126" s="76"/>
-      <c r="J126" s="76"/>
+      <c r="I126" s="52"/>
+      <c r="J126" s="52"/>
       <c r="K126" s="15">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="L126" s="58" t="s">
+      <c r="L126" s="21" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A127" s="63" t="s">
+      <c r="A127" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="B127" s="77" t="s">
+      <c r="B127" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C127" s="78"/>
-      <c r="D127" s="78"/>
-      <c r="E127" s="78"/>
-      <c r="F127" s="78"/>
-      <c r="G127" s="79"/>
-      <c r="H127" s="57" t="s">
+      <c r="C127" s="63"/>
+      <c r="D127" s="63"/>
+      <c r="E127" s="63"/>
+      <c r="F127" s="63"/>
+      <c r="G127" s="64"/>
+      <c r="H127" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="I127" s="57"/>
-      <c r="J127" s="57"/>
-      <c r="K127" s="80">
+      <c r="I127" s="48"/>
+      <c r="J127" s="48"/>
+      <c r="K127" s="27">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
-      <c r="L127" s="59" t="s">
+      <c r="L127" s="22" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A128" s="39" t="s">
+      <c r="A128" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="B128" s="18" t="s">
+      <c r="B128" s="33" t="s">
         <v>357</v>
       </c>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="18"/>
-      <c r="H128" s="57" t="s">
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="33"/>
+      <c r="G128" s="33"/>
+      <c r="H128" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="I128" s="57"/>
-      <c r="J128" s="57"/>
+      <c r="I128" s="48"/>
+      <c r="J128" s="48"/>
       <c r="K128" s="9"/>
-      <c r="L128" s="60" t="s">
+      <c r="L128" s="23" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A129" s="13"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="18"/>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="18"/>
-      <c r="G129" s="18"/>
-      <c r="H129" s="18"/>
-      <c r="I129" s="18"/>
-      <c r="J129" s="18"/>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
+      <c r="G129" s="33"/>
+      <c r="H129" s="33"/>
+      <c r="I129" s="33"/>
+      <c r="J129" s="33"/>
       <c r="K129" s="9"/>
-      <c r="L129" s="45"/>
+      <c r="L129" s="19"/>
     </row>
     <row r="130" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A130" s="13"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="18"/>
-      <c r="G130" s="18"/>
-      <c r="H130" s="18"/>
-      <c r="I130" s="18"/>
-      <c r="J130" s="18"/>
+      <c r="B130" s="33"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
+      <c r="G130" s="33"/>
+      <c r="H130" s="33"/>
+      <c r="I130" s="33"/>
+      <c r="J130" s="33"/>
       <c r="K130" s="9"/>
-      <c r="L130" s="45"/>
+      <c r="L130" s="19"/>
     </row>
     <row r="131" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A131" s="13"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
-      <c r="H131" s="18"/>
-      <c r="I131" s="18"/>
-      <c r="J131" s="18"/>
+      <c r="B131" s="33"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="33"/>
+      <c r="E131" s="33"/>
+      <c r="F131" s="33"/>
+      <c r="G131" s="33"/>
+      <c r="H131" s="33"/>
+      <c r="I131" s="33"/>
+      <c r="J131" s="33"/>
       <c r="K131" s="9"/>
-      <c r="L131" s="45"/>
+      <c r="L131" s="19"/>
     </row>
     <row r="132" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A132" s="13"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
-      <c r="H132" s="18"/>
-      <c r="I132" s="18"/>
-      <c r="J132" s="18"/>
+      <c r="B132" s="33"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="33"/>
+      <c r="E132" s="33"/>
+      <c r="F132" s="33"/>
+      <c r="G132" s="33"/>
+      <c r="H132" s="33"/>
+      <c r="I132" s="33"/>
+      <c r="J132" s="33"/>
       <c r="K132" s="9"/>
-      <c r="L132" s="45"/>
+      <c r="L132" s="19"/>
     </row>
     <row r="133" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A133" s="13"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
-      <c r="H133" s="18"/>
-      <c r="I133" s="18"/>
-      <c r="J133" s="18"/>
+      <c r="B133" s="33"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="33"/>
+      <c r="F133" s="33"/>
+      <c r="G133" s="33"/>
+      <c r="H133" s="33"/>
+      <c r="I133" s="33"/>
+      <c r="J133" s="33"/>
       <c r="K133" s="9"/>
-      <c r="L133" s="45"/>
+      <c r="L133" s="19"/>
     </row>
     <row r="134" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A134" s="13"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="18"/>
+      <c r="B134" s="33"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="33"/>
+      <c r="F134" s="33"/>
+      <c r="G134" s="33"/>
+      <c r="H134" s="33"/>
+      <c r="I134" s="33"/>
+      <c r="J134" s="33"/>
       <c r="K134" s="9"/>
-      <c r="L134" s="45"/>
+      <c r="L134" s="19"/>
     </row>
     <row r="135" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A135" s="13"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
-      <c r="J135" s="18"/>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="33"/>
+      <c r="F135" s="33"/>
+      <c r="G135" s="33"/>
+      <c r="H135" s="33"/>
+      <c r="I135" s="33"/>
+      <c r="J135" s="33"/>
       <c r="K135" s="9"/>
-      <c r="L135" s="45"/>
+      <c r="L135" s="19"/>
     </row>
     <row r="136" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A136" s="13"/>
-      <c r="B136" s="18"/>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="18"/>
-      <c r="G136" s="18"/>
-      <c r="H136" s="18"/>
-      <c r="I136" s="18"/>
-      <c r="J136" s="18"/>
+      <c r="B136" s="33"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="33"/>
+      <c r="F136" s="33"/>
+      <c r="G136" s="33"/>
+      <c r="H136" s="33"/>
+      <c r="I136" s="33"/>
+      <c r="J136" s="33"/>
       <c r="K136" s="9"/>
-      <c r="L136" s="45"/>
+      <c r="L136" s="19"/>
     </row>
     <row r="137" spans="1:12" ht="15.75" thickTop="1">
-      <c r="L137" s="46"/>
+      <c r="L137" s="20"/>
     </row>
     <row r="138" spans="1:12">
       <c r="G138" t="s">
@@ -5279,7 +5279,7 @@
       <c r="H138">
         <v>31</v>
       </c>
-      <c r="L138" s="46"/>
+      <c r="L138" s="20"/>
     </row>
     <row r="139" spans="1:12">
       <c r="G139" t="s">
@@ -5288,49 +5288,49 @@
       <c r="H139">
         <v>13</v>
       </c>
-      <c r="L139" s="46"/>
+      <c r="L139" s="20"/>
     </row>
     <row r="140" spans="1:12">
-      <c r="L140" s="46"/>
+      <c r="L140" s="20"/>
     </row>
     <row r="141" spans="1:12">
-      <c r="L141" s="46"/>
+      <c r="L141" s="20"/>
     </row>
     <row r="142" spans="1:12">
-      <c r="L142" s="46"/>
+      <c r="L142" s="20"/>
     </row>
     <row r="143" spans="1:12">
-      <c r="L143" s="46"/>
+      <c r="L143" s="20"/>
     </row>
     <row r="144" spans="1:12">
-      <c r="L144" s="46"/>
+      <c r="L144" s="20"/>
     </row>
     <row r="145" spans="12:12">
-      <c r="L145" s="46"/>
+      <c r="L145" s="20"/>
     </row>
     <row r="146" spans="12:12">
-      <c r="L146" s="46"/>
+      <c r="L146" s="20"/>
     </row>
     <row r="147" spans="12:12">
-      <c r="L147" s="46"/>
+      <c r="L147" s="20"/>
     </row>
     <row r="148" spans="12:12">
-      <c r="L148" s="46"/>
+      <c r="L148" s="20"/>
     </row>
     <row r="149" spans="12:12">
-      <c r="L149" s="46"/>
+      <c r="L149" s="20"/>
     </row>
     <row r="150" spans="12:12">
-      <c r="L150" s="46"/>
+      <c r="L150" s="20"/>
     </row>
     <row r="151" spans="12:12">
-      <c r="L151" s="46"/>
+      <c r="L151" s="20"/>
     </row>
     <row r="152" spans="12:12">
-      <c r="L152" s="46"/>
+      <c r="L152" s="20"/>
     </row>
     <row r="153" spans="12:12">
-      <c r="L153" s="46"/>
+      <c r="L153" s="20"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L1">
@@ -5343,40 +5343,206 @@
     <filterColumn colId="8" showButton="0"/>
   </autoFilter>
   <mergeCells count="272">
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="B135:G135"/>
+    <mergeCell ref="B136:G136"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="B93:G93"/>
+    <mergeCell ref="B92:G92"/>
+    <mergeCell ref="B67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="B69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="B132:G132"/>
+    <mergeCell ref="B133:G133"/>
+    <mergeCell ref="B134:G134"/>
+    <mergeCell ref="B126:G126"/>
+    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B120:G120"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B38:G38"/>
     <mergeCell ref="H21:J21"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="H23:J23"/>
@@ -5401,76 +5567,16 @@
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="H75:J75"/>
     <mergeCell ref="H94:J94"/>
     <mergeCell ref="H95:J95"/>
     <mergeCell ref="H96:J96"/>
@@ -5485,136 +5591,30 @@
     <mergeCell ref="H84:J84"/>
     <mergeCell ref="H85:J85"/>
     <mergeCell ref="H89:J89"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="H109:J109"/>
-    <mergeCell ref="H110:J110"/>
-    <mergeCell ref="H111:J111"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="H119:J119"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="H123:J123"/>
-    <mergeCell ref="H124:J124"/>
-    <mergeCell ref="H125:J125"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="H117:J117"/>
-    <mergeCell ref="H118:J118"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="H135:J135"/>
-    <mergeCell ref="H136:J136"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="H131:J131"/>
-    <mergeCell ref="H132:J132"/>
-    <mergeCell ref="H133:J133"/>
-    <mergeCell ref="H134:J134"/>
-    <mergeCell ref="H126:J126"/>
-    <mergeCell ref="H127:J127"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="B135:G135"/>
-    <mergeCell ref="B136:G136"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="B92:G92"/>
-    <mergeCell ref="B67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="B68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="B69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="B130:G130"/>
-    <mergeCell ref="B131:G131"/>
-    <mergeCell ref="B132:G132"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="B134:G134"/>
-    <mergeCell ref="B126:G126"/>
-    <mergeCell ref="B127:G127"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5810,385 +5810,423 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="86"/>
       <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="18"/>
+      <c r="E1" s="33"/>
       <c r="F1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
       <c r="C2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="21" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="21" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="18" t="s">
+      <c r="D4" s="43"/>
+      <c r="E4" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="36" t="s">
+      <c r="A5" s="80"/>
+      <c r="B5" s="80"/>
+      <c r="C5" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37" t="s">
+      <c r="D5" s="84"/>
+      <c r="E5" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="18" t="s">
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="18" t="s">
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="21" t="s">
+      <c r="B8" s="83"/>
+      <c r="C8" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="81"/>
+      <c r="E8" s="33" t="s">
         <v>360</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="21" t="s">
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="82"/>
+      <c r="E9" s="33" t="s">
         <v>361</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="66"/>
+      <c r="C10" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="81"/>
+      <c r="E10" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="87"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="21" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="43"/>
+      <c r="E11" s="33" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:8" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="38" t="s">
+      <c r="B12" s="80"/>
+      <c r="C12" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="21" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
     </row>
     <row r="14" spans="1:8" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="70"/>
+      <c r="C14" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="43"/>
+      <c r="E14" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="85"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="21" t="s">
+      <c r="A15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="33" t="s">
         <v>365</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="87" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="18" t="s">
+      <c r="D16" s="82"/>
+      <c r="E16" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
     </row>
     <row r="17" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="85"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="21" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="18" t="s">
+      <c r="D17" s="43"/>
+      <c r="E17" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="80" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="94"/>
+      <c r="C18" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="18" t="s">
+      <c r="D18" s="82"/>
+      <c r="E18" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="21" t="s">
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="82"/>
+      <c r="E19" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="80" t="s">
         <v>111</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="80"/>
+      <c r="C20" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="18" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="21" t="s">
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="18" t="s">
+      <c r="D21" s="43"/>
+      <c r="E21" s="33" t="s">
         <v>363</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="21" t="s">
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="47" t="s">
+      <c r="D22" s="43"/>
+      <c r="E22" s="40" t="s">
         <v>368</v>
       </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="25"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="90"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="28"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="93"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="27" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="73" t="s">
         <v>369</v>
       </c>
-      <c r="B27" s="90"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="90"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="90"/>
-      <c r="H27" s="91"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="75"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="94"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="78"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="A24:H25"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A20:B22"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A3:B7"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A8:B9"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="A14:B15"/>
     <mergeCell ref="A27:H28"/>
@@ -6205,44 +6243,6 @@
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="E11:H11"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:B7"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="A24:H25"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A20:B22"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SRS ENTREGA/Descripción Requerimientos.xlsx
+++ b/SRS ENTREGA/Descripción Requerimientos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="14070" windowHeight="5235"/>
@@ -883,12 +883,6 @@
     <t xml:space="preserve">El sistema debe permitir a un jugador rechazar una intención de compra de una propiedad proveniente de otro jugador </t>
   </si>
   <si>
-    <t>El sistema debe descontar de un jugador el valor del cover de una propiedad que ya tenga dueño, si este cae en dicha propiedad</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir a los jugadores comprar cervezas si es mayor de edad</t>
-  </si>
-  <si>
     <t>MAYOR DE EDAD</t>
   </si>
   <si>
@@ -922,9 +916,6 @@
     <t xml:space="preserve">El sistema debera asignar el dinero inicial correspondiente a $1.000.000 a cada jugador. </t>
   </si>
   <si>
-    <t>El sistema debe establecer el orden de los jugadores en la partida, por orden de entrada esta</t>
-  </si>
-  <si>
     <t>El sistema debe asignar a cada jugador 2 propiedades diferentes al inicio de la partida</t>
   </si>
   <si>
@@ -1130,6 +1121,15 @@
   </si>
   <si>
     <t>ttp://www.tutorialspoint.com/cmmi/cmmi-maturity-levels.htm</t>
+  </si>
+  <si>
+    <t>El sistema debe descontar de un jugador el valor del cover de una propiedad que ya tenga dueño, si dicho jugador cae en dicha propiedad</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir a un jugador comprar cervezas si es mayor de edad</t>
+  </si>
+  <si>
+    <t>El sistema debe establecer el orden de los jugadores en la partida, por orden de entrada a esta</t>
   </si>
 </sst>
 </file>
@@ -1463,6 +1463,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1472,13 +1550,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1490,89 +1574,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1592,15 +1646,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1618,51 +1663,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1960,8 +1960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:G43"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1975,19 +1975,19 @@
       <c r="A1" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43" t="s">
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
       <c r="K1" s="7" t="s">
         <v>252</v>
       </c>
@@ -1999,19 +1999,19 @@
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
       <c r="K2" s="8"/>
       <c r="L2" s="11"/>
     </row>
@@ -2019,19 +2019,19 @@
       <c r="A3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="8">
         <v>1</v>
       </c>
@@ -2048,19 +2048,19 @@
       <c r="A4" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="29" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="8">
         <f t="shared" ref="K4:K75" si="0">K3+1</f>
         <v>2</v>
@@ -2073,19 +2073,19 @@
       <c r="A5" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2098,19 +2098,19 @@
       <c r="A6" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2123,19 +2123,19 @@
       <c r="A7" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2148,19 +2148,19 @@
       <c r="A8" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="37" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="59"/>
       <c r="K8" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2173,19 +2173,19 @@
       <c r="A9" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="37" t="s">
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="59"/>
       <c r="K9" s="11" t="s">
         <v>270</v>
       </c>
@@ -2197,19 +2197,19 @@
       <c r="A10" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="33" t="s">
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="8">
         <f>K8+1</f>
         <v>7</v>
@@ -2222,19 +2222,19 @@
       <c r="A11" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2247,19 +2247,19 @@
       <c r="A12" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="29" t="s">
         <v>273</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2272,19 +2272,19 @@
       <c r="A13" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2297,19 +2297,19 @@
       <c r="A14" s="25" t="s">
         <v>283</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="40" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="I14" s="41"/>
-      <c r="J14" s="42"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51"/>
       <c r="K14" s="12" t="s">
         <v>270</v>
       </c>
@@ -2321,19 +2321,19 @@
       <c r="A15" s="25" t="s">
         <v>285</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="40" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="42"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51"/>
       <c r="K15" s="12" t="s">
         <v>270</v>
       </c>
@@ -2345,14 +2345,14 @@
       <c r="A16" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
+      <c r="B16" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="31" t="s">
         <v>117</v>
       </c>
@@ -2370,14 +2370,14 @@
       <c r="A17" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="B17" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
       <c r="H17" s="31" t="s">
         <v>117</v>
       </c>
@@ -2395,14 +2395,14 @@
       <c r="A18" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="B18" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="31" t="s">
         <v>117</v>
       </c>
@@ -2420,14 +2420,14 @@
       <c r="A19" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="B19" s="29" t="s">
+        <v>289</v>
+      </c>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
       <c r="H19" s="31" t="s">
         <v>117</v>
       </c>
@@ -2445,14 +2445,14 @@
       <c r="A20" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>292</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="B20" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
       <c r="H20" s="31" t="s">
         <v>117</v>
       </c>
@@ -2470,19 +2470,19 @@
       <c r="A21" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>293</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33" t="s">
+      <c r="B21" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
       <c r="K21" s="8">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2495,19 +2495,19 @@
       <c r="A22" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
       <c r="K22" s="8">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2520,19 +2520,19 @@
       <c r="A23" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33" t="s">
+      <c r="B23" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
       <c r="K23" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2545,19 +2545,19 @@
       <c r="A24" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="33" t="s">
+      <c r="B24" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
       <c r="K24" s="8">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2570,19 +2570,19 @@
       <c r="A25" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="30" t="s">
         <v>257</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="33" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
       <c r="K25" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2595,19 +2595,19 @@
       <c r="A26" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33" t="s">
+      <c r="B26" s="29" t="s">
+        <v>296</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
       <c r="K26" s="8">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2620,19 +2620,19 @@
       <c r="A27" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="B27" s="33" t="s">
-        <v>299</v>
-      </c>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33" t="s">
+      <c r="B27" s="29" t="s">
+        <v>297</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
       <c r="K27" s="8">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2645,19 +2645,19 @@
       <c r="A28" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="40" t="s">
-        <v>300</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="33" t="s">
+      <c r="B28" s="49" t="s">
+        <v>369</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
       <c r="K28" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2668,21 +2668,21 @@
     </row>
     <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A29" s="25" t="s">
-        <v>302</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="33" t="s">
+        <v>299</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="I29" s="33"/>
-      <c r="J29" s="33"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="12" t="s">
         <v>270</v>
       </c>
@@ -2694,19 +2694,19 @@
       <c r="A30" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33" t="s">
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
       <c r="K30" s="8">
         <f>K28+1</f>
         <v>24</v>
@@ -2719,19 +2719,19 @@
       <c r="A31" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33" t="s">
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2744,14 +2744,14 @@
       <c r="A32" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>303</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="B32" s="28" t="s">
+        <v>300</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
       <c r="H32" s="31" t="s">
         <v>120</v>
       </c>
@@ -2769,19 +2769,19 @@
       <c r="A33" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="29" t="s">
         <v>274</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33" t="s">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I33" s="33"/>
-      <c r="J33" s="33"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
       <c r="K33" s="8">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2794,19 +2794,19 @@
       <c r="A34" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33" t="s">
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="33"/>
-      <c r="J34" s="33"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
       <c r="K34" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2819,19 +2819,19 @@
       <c r="A35" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33" t="s">
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I35" s="33"/>
-      <c r="J35" s="33"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
       <c r="K35" s="8">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2844,19 +2844,19 @@
       <c r="A36" s="25" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33" t="s">
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I36" s="33"/>
-      <c r="J36" s="33"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
       <c r="K36" s="8">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2867,21 +2867,21 @@
     </row>
     <row r="37" spans="1:12" ht="34.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A37" s="25" t="s">
-        <v>304</v>
-      </c>
-      <c r="B37" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="33" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
       <c r="K37" s="12" t="s">
         <v>270</v>
       </c>
@@ -2893,19 +2893,19 @@
       <c r="A38" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="33" t="s">
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
       <c r="K38" s="8">
         <f>K36+1</f>
         <v>31</v>
@@ -2918,19 +2918,19 @@
       <c r="A39" s="25" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33" t="s">
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
       <c r="K39" s="8">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2943,19 +2943,19 @@
       <c r="A40" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33" t="s">
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="I40" s="33"/>
-      <c r="J40" s="33"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
       <c r="K40" s="8">
         <f>K39+1</f>
         <v>33</v>
@@ -2968,16 +2968,16 @@
       <c r="A41" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="B41" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
+      <c r="B41" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
       <c r="H41" s="31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I41" s="31"/>
       <c r="J41" s="31"/>
@@ -2993,16 +2993,16 @@
       <c r="A42" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="B42" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
       <c r="H42" s="31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I42" s="31"/>
       <c r="J42" s="31"/>
@@ -3018,16 +3018,16 @@
       <c r="A43" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="C43" s="50"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="31" t="s">
         <v>310</v>
-      </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="31" t="s">
-        <v>313</v>
       </c>
       <c r="I43" s="31"/>
       <c r="J43" s="31"/>
@@ -3043,16 +3043,16 @@
       <c r="A44" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="42"/>
+      <c r="B44" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="C44" s="50"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51"/>
       <c r="H44" s="31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I44" s="31"/>
       <c r="J44" s="31"/>
@@ -3068,16 +3068,16 @@
       <c r="A45" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="B45" s="40" t="s">
-        <v>311</v>
-      </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="42"/>
+      <c r="B45" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="C45" s="50"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="51"/>
       <c r="H45" s="31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I45" s="31"/>
       <c r="J45" s="31"/>
@@ -3093,16 +3093,16 @@
       <c r="A46" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="42"/>
+      <c r="B46" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="51"/>
       <c r="H46" s="31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I46" s="31"/>
       <c r="J46" s="31"/>
@@ -3118,14 +3118,14 @@
       <c r="A47" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
       <c r="H47" s="31" t="s">
         <v>122</v>
       </c>
@@ -3143,14 +3143,14 @@
       <c r="A48" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B48" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-      <c r="F48" s="32"/>
-      <c r="G48" s="32"/>
+      <c r="B48" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
       <c r="H48" s="31" t="s">
         <v>122</v>
       </c>
@@ -3168,14 +3168,14 @@
       <c r="A49" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="B49" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="32"/>
-      <c r="G49" s="32"/>
+      <c r="B49" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
       <c r="H49" s="31" t="s">
         <v>122</v>
       </c>
@@ -3193,14 +3193,14 @@
       <c r="A50" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
       <c r="H50" s="31" t="s">
         <v>122</v>
       </c>
@@ -3218,14 +3218,14 @@
       <c r="A51" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
       <c r="H51" s="31" t="s">
         <v>122</v>
       </c>
@@ -3243,19 +3243,19 @@
       <c r="A52" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="B52" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="33" t="s">
+      <c r="B52" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
       <c r="K52" s="8">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -3268,19 +3268,19 @@
       <c r="A53" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B53" s="32" t="s">
-        <v>322</v>
-      </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32" t="s">
+      <c r="B53" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
       <c r="K53" s="8">
         <f>K52+1</f>
         <v>46</v>
@@ -3293,19 +3293,19 @@
       <c r="A54" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="B54" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32" t="s">
+      <c r="B54" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
       <c r="K54" s="8">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -3318,19 +3318,19 @@
       <c r="A55" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="B55" s="32" t="s">
-        <v>318</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32" t="s">
+      <c r="B55" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
       <c r="K55" s="8">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -3344,18 +3344,18 @@
         <v>177</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C56" s="31"/>
       <c r="D56" s="31"/>
       <c r="E56" s="31"/>
       <c r="F56" s="31"/>
       <c r="G56" s="31"/>
-      <c r="H56" s="32" t="s">
+      <c r="H56" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
       <c r="K56" s="8">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -3368,19 +3368,19 @@
       <c r="A57" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B57" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32" t="s">
+      <c r="B57" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="28"/>
       <c r="K57" s="8">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -3393,19 +3393,19 @@
       <c r="A58" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B58" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
-      <c r="H58" s="32" t="s">
+      <c r="B58" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="28"/>
       <c r="K58" s="8">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -3416,16 +3416,16 @@
     </row>
     <row r="59" spans="1:12" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A59" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="30"/>
+        <v>322</v>
+      </c>
+      <c r="B59" s="54" t="s">
+        <v>323</v>
+      </c>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="56"/>
       <c r="H59" s="31" t="s">
         <v>180</v>
       </c>
@@ -3442,14 +3442,14 @@
       <c r="A60" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="B60" s="32" t="s">
-        <v>327</v>
-      </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
+      <c r="B60" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
       <c r="H60" s="31" t="s">
         <v>180</v>
       </c>
@@ -3467,19 +3467,19 @@
       <c r="A61" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-      <c r="G61" s="33"/>
-      <c r="H61" s="33" t="s">
+      <c r="B61" s="29" t="s">
+        <v>320</v>
+      </c>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="I61" s="33"/>
-      <c r="J61" s="33"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
       <c r="K61" s="8">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -3492,19 +3492,19 @@
       <c r="A62" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="B62" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="33" t="s">
+      <c r="B62" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
       <c r="K62" s="8">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -3517,19 +3517,19 @@
       <c r="A63" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B63" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="33" t="s">
+      <c r="B63" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="I63" s="33"/>
-      <c r="J63" s="33"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
       <c r="K63" s="8">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -3540,21 +3540,21 @@
     </row>
     <row r="64" spans="1:12" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A64" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>330</v>
-      </c>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="32"/>
-      <c r="F64" s="32"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="C64" s="28"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="I64" s="33"/>
-      <c r="J64" s="33"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
       <c r="K64" s="12" t="s">
         <v>270</v>
       </c>
@@ -3564,21 +3564,21 @@
     </row>
     <row r="65" spans="1:12" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A65" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>332</v>
-      </c>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="C65" s="28"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="28"/>
+      <c r="G65" s="28"/>
+      <c r="H65" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
       <c r="K65" s="12" t="s">
         <v>270</v>
       </c>
@@ -3590,19 +3590,19 @@
       <c r="A66" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B66" s="32" t="s">
-        <v>331</v>
-      </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="33" t="s">
+      <c r="B66" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="29" t="s">
         <v>180</v>
       </c>
-      <c r="I66" s="33"/>
-      <c r="J66" s="33"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
       <c r="K66" s="8">
         <f>K63+1</f>
         <v>56</v>
@@ -3615,14 +3615,14 @@
       <c r="A67" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B67" s="32" t="s">
-        <v>335</v>
-      </c>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
+      <c r="B67" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
       <c r="H67" s="31" t="s">
         <v>182</v>
       </c>
@@ -3640,19 +3640,19 @@
       <c r="A68" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B68" s="32" t="s">
-        <v>336</v>
-      </c>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32"/>
-      <c r="F68" s="32"/>
-      <c r="G68" s="32"/>
-      <c r="H68" s="46" t="s">
+      <c r="B68" s="28" t="s">
+        <v>333</v>
+      </c>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
       <c r="K68" s="8">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -3665,19 +3665,19 @@
       <c r="A69" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="B69" s="32" t="s">
-        <v>337</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="46" t="s">
+      <c r="B69" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
       <c r="K69" s="8">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3690,19 +3690,19 @@
       <c r="A70" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="B70" s="32" t="s">
+      <c r="B70" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="28" t="s">
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="I70" s="29"/>
-      <c r="J70" s="30"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="56"/>
       <c r="K70" s="8">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3715,14 +3715,14 @@
       <c r="A71" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="B71" s="32" t="s">
-        <v>338</v>
-      </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
+      <c r="B71" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
       <c r="H71" s="31" t="s">
         <v>188</v>
       </c>
@@ -3740,19 +3740,19 @@
       <c r="A72" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="B72" s="33" t="s">
-        <v>339</v>
-      </c>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33" t="s">
+      <c r="B72" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="I72" s="33"/>
-      <c r="J72" s="33"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
       <c r="K72" s="8">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3765,19 +3765,19 @@
       <c r="A73" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B73" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
-      <c r="H73" s="33" t="s">
+      <c r="B73" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="I73" s="33"/>
-      <c r="J73" s="33"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
       <c r="K73" s="8">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -3790,19 +3790,19 @@
       <c r="A74" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B74" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
-      <c r="G74" s="33"/>
-      <c r="H74" s="32" t="s">
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
       <c r="K74" s="8">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -3815,19 +3815,19 @@
       <c r="A75" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="33"/>
-      <c r="G75" s="33"/>
-      <c r="H75" s="32" t="s">
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
       <c r="K75" s="8">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -3840,19 +3840,19 @@
       <c r="A76" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="B76" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
-      <c r="H76" s="32" t="s">
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
       <c r="K76" s="8">
         <f t="shared" ref="K76:K127" si="1">K75+1</f>
         <v>66</v>
@@ -3865,19 +3865,19 @@
       <c r="A77" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B77" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="33"/>
-      <c r="G77" s="33"/>
-      <c r="H77" s="32" t="s">
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
+      <c r="I77" s="28"/>
+      <c r="J77" s="28"/>
       <c r="K77" s="8">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -3890,19 +3890,19 @@
       <c r="A78" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="B78" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33" t="s">
+      <c r="B78" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
       <c r="K78" s="8">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -3915,19 +3915,19 @@
       <c r="A79" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B79" s="33" t="s">
+      <c r="B79" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33" t="s">
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
       <c r="K79" s="8">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -3940,19 +3940,19 @@
       <c r="A80" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B80" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33" t="s">
+      <c r="B80" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
       <c r="K80" s="8">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -3965,19 +3965,19 @@
       <c r="A81" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B81" s="33" t="s">
+      <c r="B81" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
-      <c r="G81" s="33"/>
-      <c r="H81" s="33" t="s">
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I81" s="33"/>
-      <c r="J81" s="33"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
       <c r="K81" s="8">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -3990,19 +3990,19 @@
       <c r="A82" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="33"/>
-      <c r="G82" s="33"/>
-      <c r="H82" s="33" t="s">
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I82" s="33"/>
-      <c r="J82" s="33"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
       <c r="K82" s="8">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -4015,19 +4015,19 @@
       <c r="A83" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B83" s="33" t="s">
+      <c r="B83" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33" t="s">
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
       <c r="K83" s="8">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -4040,14 +4040,14 @@
       <c r="A84" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B84" s="32" t="s">
-        <v>345</v>
-      </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="32"/>
-      <c r="G84" s="32"/>
+      <c r="B84" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C84" s="28"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="28"/>
+      <c r="G84" s="28"/>
       <c r="H84" s="31" t="s">
         <v>198</v>
       </c>
@@ -4065,19 +4065,19 @@
       <c r="A85" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B85" s="32" t="s">
+      <c r="B85" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="32"/>
-      <c r="F85" s="32"/>
-      <c r="G85" s="32"/>
-      <c r="H85" s="46" t="s">
+      <c r="C85" s="28"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="28"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="I85" s="46"/>
-      <c r="J85" s="46"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
       <c r="K85" s="8">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -4090,19 +4090,19 @@
       <c r="A86" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B86" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33" t="s">
+      <c r="B86" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
       <c r="K86" s="8">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -4115,19 +4115,19 @@
       <c r="A87" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="B87" s="33" t="s">
+      <c r="B87" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33" t="s">
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
       <c r="K87" s="8">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -4140,19 +4140,19 @@
       <c r="A88" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="B88" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33" t="s">
+      <c r="B88" s="29" t="s">
+        <v>345</v>
+      </c>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
       <c r="K88" s="8">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -4165,19 +4165,19 @@
       <c r="A89" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33" t="s">
+      <c r="C89" s="29"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
       <c r="K89" s="8">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -4190,19 +4190,19 @@
       <c r="A90" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="B90" s="33" t="s">
+      <c r="B90" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33" t="s">
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
       <c r="K90" s="8">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -4213,21 +4213,21 @@
     </row>
     <row r="91" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A91" s="24" t="s">
-        <v>349</v>
-      </c>
-      <c r="B91" s="34" t="s">
-        <v>350</v>
-      </c>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="36"/>
-      <c r="H91" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="B91" s="62" t="s">
+        <v>347</v>
+      </c>
+      <c r="C91" s="63"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="64"/>
+      <c r="H91" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
       <c r="K91" s="12" t="s">
         <v>270</v>
       </c>
@@ -4239,19 +4239,19 @@
       <c r="A92" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B92" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33" t="s">
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
       <c r="K92" s="8">
         <f>K90+1</f>
         <v>81</v>
@@ -4264,19 +4264,19 @@
       <c r="A93" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B93" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C93" s="33"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="33"/>
-      <c r="G93" s="33"/>
-      <c r="H93" s="33" t="s">
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I93" s="33"/>
-      <c r="J93" s="33"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
       <c r="K93" s="8">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -4289,19 +4289,19 @@
       <c r="A94" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B94" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C94" s="33"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
-      <c r="G94" s="33"/>
-      <c r="H94" s="33" t="s">
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I94" s="33"/>
-      <c r="J94" s="33"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
       <c r="K94" s="8">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -4314,19 +4314,19 @@
       <c r="A95" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C95" s="33"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="33"/>
-      <c r="G95" s="33"/>
-      <c r="H95" s="33" t="s">
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I95" s="33"/>
-      <c r="J95" s="33"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
       <c r="K95" s="8">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -4339,19 +4339,19 @@
       <c r="A96" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="B96" s="33" t="s">
+      <c r="B96" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C96" s="33"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="33"/>
-      <c r="G96" s="33"/>
-      <c r="H96" s="33" t="s">
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I96" s="33"/>
-      <c r="J96" s="33"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
       <c r="K96" s="8">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -4364,19 +4364,19 @@
       <c r="A97" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="B97" s="33" t="s">
+      <c r="B97" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C97" s="33"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="33"/>
-      <c r="G97" s="33"/>
-      <c r="H97" s="33" t="s">
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I97" s="33"/>
-      <c r="J97" s="33"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
       <c r="K97" s="8">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -4389,19 +4389,19 @@
       <c r="A98" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="B98" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C98" s="33"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
-      <c r="G98" s="33"/>
-      <c r="H98" s="33" t="s">
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I98" s="33"/>
-      <c r="J98" s="33"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
       <c r="K98" s="8">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -4414,19 +4414,19 @@
       <c r="A99" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="B99" s="33" t="s">
+      <c r="B99" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="33"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="33"/>
-      <c r="G99" s="33"/>
-      <c r="H99" s="33" t="s">
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I99" s="33"/>
-      <c r="J99" s="33"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
       <c r="K99" s="8">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -4439,19 +4439,19 @@
       <c r="A100" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B100" s="33" t="s">
+      <c r="B100" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C100" s="33"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="33"/>
-      <c r="G100" s="33"/>
-      <c r="H100" s="33" t="s">
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I100" s="33"/>
-      <c r="J100" s="33"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
       <c r="K100" s="8">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -4464,19 +4464,19 @@
       <c r="A101" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="B101" s="33" t="s">
+      <c r="B101" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C101" s="33"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="33"/>
-      <c r="G101" s="33"/>
-      <c r="H101" s="33" t="s">
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I101" s="33"/>
-      <c r="J101" s="33"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
       <c r="K101" s="8">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -4489,14 +4489,14 @@
       <c r="A102" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="B102" s="32" t="s">
-        <v>354</v>
-      </c>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="32"/>
-      <c r="F102" s="32"/>
-      <c r="G102" s="32"/>
+      <c r="B102" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
       <c r="H102" s="31" t="s">
         <v>198</v>
       </c>
@@ -4514,19 +4514,19 @@
       <c r="A103" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="B103" s="40" t="s">
-        <v>352</v>
-      </c>
-      <c r="C103" s="41"/>
-      <c r="D103" s="41"/>
-      <c r="E103" s="41"/>
-      <c r="F103" s="41"/>
-      <c r="G103" s="42"/>
-      <c r="H103" s="33" t="s">
+      <c r="B103" s="49" t="s">
+        <v>349</v>
+      </c>
+      <c r="C103" s="50"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I103" s="33"/>
-      <c r="J103" s="33"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
       <c r="K103" s="8">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -4539,19 +4539,19 @@
       <c r="A104" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="B104" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="C104" s="33"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="33"/>
-      <c r="G104" s="33"/>
-      <c r="H104" s="33" t="s">
+      <c r="B104" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I104" s="33"/>
-      <c r="J104" s="33"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
       <c r="K104" s="8">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -4564,19 +4564,19 @@
       <c r="A105" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="B105" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="C105" s="33"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33" t="s">
+      <c r="B105" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="I105" s="33"/>
-      <c r="J105" s="33"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
       <c r="K105" s="8">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -4589,14 +4589,14 @@
       <c r="A106" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="B106" s="32" t="s">
+      <c r="B106" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="32"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="32"/>
-      <c r="G106" s="32"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28"/>
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
       <c r="H106" s="31" t="s">
         <v>224</v>
       </c>
@@ -4614,19 +4614,19 @@
       <c r="A107" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B107" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C107" s="32"/>
-      <c r="D107" s="32"/>
-      <c r="E107" s="32"/>
-      <c r="F107" s="32"/>
-      <c r="G107" s="32"/>
-      <c r="H107" s="32" t="s">
+      <c r="C107" s="28"/>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="I107" s="32"/>
-      <c r="J107" s="32"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
       <c r="K107" s="8">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -4639,19 +4639,19 @@
       <c r="A108" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="B108" s="33" t="s">
+      <c r="B108" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
-      <c r="G108" s="33"/>
-      <c r="H108" s="33" t="s">
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="I108" s="33"/>
-      <c r="J108" s="33"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
       <c r="K108" s="8">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -4664,19 +4664,19 @@
       <c r="A109" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="B109" s="33" t="s">
+      <c r="B109" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C109" s="33"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="33"/>
-      <c r="G109" s="33"/>
-      <c r="H109" s="33" t="s">
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="I109" s="33"/>
-      <c r="J109" s="33"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
       <c r="K109" s="8">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -4689,19 +4689,19 @@
       <c r="A110" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="B110" s="33" t="s">
+      <c r="B110" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33" t="s">
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="I110" s="33"/>
-      <c r="J110" s="33"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
       <c r="K110" s="8">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -4714,19 +4714,19 @@
       <c r="A111" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B111" s="47" t="s">
+      <c r="B111" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C111" s="47"/>
-      <c r="D111" s="47"/>
-      <c r="E111" s="47"/>
-      <c r="F111" s="47"/>
-      <c r="G111" s="47"/>
-      <c r="H111" s="47" t="s">
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="I111" s="47"/>
-      <c r="J111" s="47"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="39"/>
       <c r="K111" s="15">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -4739,19 +4739,19 @@
       <c r="A112" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="B112" s="47" t="s">
+      <c r="B112" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C112" s="47"/>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="47"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="47" t="s">
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="I112" s="47"/>
-      <c r="J112" s="47"/>
+      <c r="I112" s="39"/>
+      <c r="J112" s="39"/>
       <c r="K112" s="15">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -4764,19 +4764,19 @@
       <c r="A113" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="B113" s="47" t="s">
+      <c r="B113" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C113" s="47"/>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="47"/>
-      <c r="G113" s="47"/>
-      <c r="H113" s="47" t="s">
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="I113" s="47"/>
-      <c r="J113" s="47"/>
+      <c r="I113" s="39"/>
+      <c r="J113" s="39"/>
       <c r="K113" s="15">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -4789,19 +4789,19 @@
       <c r="A114" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="B114" s="47" t="s">
+      <c r="B114" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="C114" s="47"/>
-      <c r="D114" s="47"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="47"/>
-      <c r="G114" s="47"/>
-      <c r="H114" s="47" t="s">
+      <c r="C114" s="39"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="I114" s="47"/>
-      <c r="J114" s="47"/>
+      <c r="I114" s="39"/>
+      <c r="J114" s="39"/>
       <c r="K114" s="15">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -4814,19 +4814,19 @@
       <c r="A115" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="B115" s="47" t="s">
+      <c r="B115" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="C115" s="47"/>
-      <c r="D115" s="47"/>
-      <c r="E115" s="47"/>
-      <c r="F115" s="47"/>
-      <c r="G115" s="47"/>
-      <c r="H115" s="47" t="s">
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="I115" s="47"/>
-      <c r="J115" s="47"/>
+      <c r="I115" s="39"/>
+      <c r="J115" s="39"/>
       <c r="K115" s="15">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -4839,19 +4839,19 @@
       <c r="A116" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="B116" s="47" t="s">
+      <c r="B116" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C116" s="47"/>
-      <c r="D116" s="47"/>
-      <c r="E116" s="47"/>
-      <c r="F116" s="47"/>
-      <c r="G116" s="47"/>
-      <c r="H116" s="47" t="s">
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="I116" s="47"/>
-      <c r="J116" s="47"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="39"/>
       <c r="K116" s="15">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -4864,19 +4864,19 @@
       <c r="A117" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="B117" s="56" t="s">
+      <c r="B117" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="C117" s="56"/>
-      <c r="D117" s="56"/>
-      <c r="E117" s="56"/>
-      <c r="F117" s="56"/>
-      <c r="G117" s="56"/>
-      <c r="H117" s="47" t="s">
+      <c r="C117" s="43"/>
+      <c r="D117" s="43"/>
+      <c r="E117" s="43"/>
+      <c r="F117" s="43"/>
+      <c r="G117" s="43"/>
+      <c r="H117" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="I117" s="47"/>
-      <c r="J117" s="47"/>
+      <c r="I117" s="39"/>
+      <c r="J117" s="39"/>
       <c r="K117" s="15">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -4889,19 +4889,19 @@
       <c r="A118" s="24" t="s">
         <v>239</v>
       </c>
-      <c r="B118" s="47" t="s">
+      <c r="B118" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C118" s="47"/>
-      <c r="D118" s="47"/>
-      <c r="E118" s="47"/>
-      <c r="F118" s="47"/>
-      <c r="G118" s="47"/>
-      <c r="H118" s="47" t="s">
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="I118" s="47"/>
-      <c r="J118" s="47"/>
+      <c r="I118" s="39"/>
+      <c r="J118" s="39"/>
       <c r="K118" s="15">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -4914,19 +4914,19 @@
       <c r="A119" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="B119" s="47" t="s">
+      <c r="B119" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="47"/>
-      <c r="D119" s="47"/>
-      <c r="E119" s="47"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="47"/>
-      <c r="H119" s="47" t="s">
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="I119" s="47"/>
-      <c r="J119" s="47"/>
+      <c r="I119" s="39"/>
+      <c r="J119" s="39"/>
       <c r="K119" s="15">
         <f>K118+1</f>
         <v>108</v>
@@ -4939,19 +4939,19 @@
       <c r="A120" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="B120" s="57" t="s">
+      <c r="B120" s="33" t="s">
         <v>255</v>
       </c>
-      <c r="C120" s="58"/>
-      <c r="D120" s="58"/>
-      <c r="E120" s="58"/>
-      <c r="F120" s="58"/>
-      <c r="G120" s="59"/>
-      <c r="H120" s="49" t="s">
+      <c r="C120" s="47"/>
+      <c r="D120" s="47"/>
+      <c r="E120" s="47"/>
+      <c r="F120" s="47"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="I120" s="50"/>
-      <c r="J120" s="51"/>
+      <c r="I120" s="45"/>
+      <c r="J120" s="46"/>
       <c r="K120" s="15">
         <f>K119+1</f>
         <v>109</v>
@@ -4964,19 +4964,19 @@
       <c r="A121" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="B121" s="49" t="s">
+      <c r="B121" s="44" t="s">
         <v>254</v>
       </c>
-      <c r="C121" s="50"/>
-      <c r="D121" s="50"/>
-      <c r="E121" s="50"/>
-      <c r="F121" s="50"/>
-      <c r="G121" s="51"/>
-      <c r="H121" s="47" t="s">
+      <c r="C121" s="45"/>
+      <c r="D121" s="45"/>
+      <c r="E121" s="45"/>
+      <c r="F121" s="45"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="I121" s="47"/>
-      <c r="J121" s="47"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="39"/>
       <c r="K121" s="15">
         <f>K120+1</f>
         <v>110</v>
@@ -4989,19 +4989,19 @@
       <c r="A122" s="24" t="s">
         <v>243</v>
       </c>
-      <c r="B122" s="47" t="s">
+      <c r="B122" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C122" s="47"/>
-      <c r="D122" s="47"/>
-      <c r="E122" s="47"/>
-      <c r="F122" s="47"/>
-      <c r="G122" s="47"/>
-      <c r="H122" s="47" t="s">
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="I122" s="47"/>
-      <c r="J122" s="47"/>
+      <c r="I122" s="39"/>
+      <c r="J122" s="39"/>
       <c r="K122" s="15">
         <f>K121+1</f>
         <v>111</v>
@@ -5014,19 +5014,19 @@
       <c r="A123" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="B123" s="47" t="s">
+      <c r="B123" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C123" s="47"/>
-      <c r="D123" s="47"/>
-      <c r="E123" s="47"/>
-      <c r="F123" s="47"/>
-      <c r="G123" s="47"/>
-      <c r="H123" s="47" t="s">
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="I123" s="47"/>
-      <c r="J123" s="47"/>
+      <c r="I123" s="39"/>
+      <c r="J123" s="39"/>
       <c r="K123" s="15">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -5039,19 +5039,19 @@
       <c r="A124" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="B124" s="53" t="s">
+      <c r="B124" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="C124" s="54"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="54"/>
-      <c r="F124" s="54"/>
-      <c r="G124" s="55"/>
-      <c r="H124" s="47" t="s">
+      <c r="C124" s="41"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="42"/>
+      <c r="H124" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="I124" s="47"/>
-      <c r="J124" s="47"/>
+      <c r="I124" s="39"/>
+      <c r="J124" s="39"/>
       <c r="K124" s="15">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -5064,19 +5064,19 @@
       <c r="A125" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="B125" s="53" t="s">
-        <v>355</v>
-      </c>
-      <c r="C125" s="54"/>
-      <c r="D125" s="54"/>
-      <c r="E125" s="54"/>
-      <c r="F125" s="54"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="47" t="s">
+      <c r="B125" s="40" t="s">
+        <v>352</v>
+      </c>
+      <c r="C125" s="41"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="42"/>
+      <c r="H125" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="I125" s="47"/>
-      <c r="J125" s="47"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="39"/>
       <c r="K125" s="15">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -5089,14 +5089,14 @@
       <c r="A126" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="B126" s="57" t="s">
+      <c r="B126" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C126" s="60"/>
-      <c r="D126" s="60"/>
-      <c r="E126" s="60"/>
-      <c r="F126" s="60"/>
-      <c r="G126" s="61"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="34"/>
+      <c r="F126" s="34"/>
+      <c r="G126" s="35"/>
       <c r="H126" s="52" t="s">
         <v>242</v>
       </c>
@@ -5114,19 +5114,19 @@
       <c r="A127" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="B127" s="62" t="s">
+      <c r="B127" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C127" s="63"/>
-      <c r="D127" s="63"/>
-      <c r="E127" s="63"/>
-      <c r="F127" s="63"/>
-      <c r="G127" s="64"/>
-      <c r="H127" s="48" t="s">
+      <c r="C127" s="37"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="37"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="38"/>
+      <c r="H127" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="I127" s="48"/>
-      <c r="J127" s="48"/>
+      <c r="I127" s="53"/>
+      <c r="J127" s="53"/>
       <c r="K127" s="27">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -5137,21 +5137,21 @@
     </row>
     <row r="128" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A128" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="B128" s="33" t="s">
-        <v>357</v>
-      </c>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="33"/>
-      <c r="G128" s="33"/>
-      <c r="H128" s="48" t="s">
+        <v>353</v>
+      </c>
+      <c r="B128" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="I128" s="48"/>
-      <c r="J128" s="48"/>
+      <c r="I128" s="53"/>
+      <c r="J128" s="53"/>
       <c r="K128" s="9"/>
       <c r="L128" s="23" t="s">
         <v>266</v>
@@ -5159,113 +5159,113 @@
     </row>
     <row r="129" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A129" s="13"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="33"/>
-      <c r="G129" s="33"/>
-      <c r="H129" s="33"/>
-      <c r="I129" s="33"/>
-      <c r="J129" s="33"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="29"/>
       <c r="K129" s="9"/>
       <c r="L129" s="19"/>
     </row>
     <row r="130" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A130" s="13"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="33"/>
-      <c r="G130" s="33"/>
-      <c r="H130" s="33"/>
-      <c r="I130" s="33"/>
-      <c r="J130" s="33"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
       <c r="K130" s="9"/>
       <c r="L130" s="19"/>
     </row>
     <row r="131" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A131" s="13"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="33"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="33"/>
-      <c r="G131" s="33"/>
-      <c r="H131" s="33"/>
-      <c r="I131" s="33"/>
-      <c r="J131" s="33"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="29"/>
       <c r="K131" s="9"/>
       <c r="L131" s="19"/>
     </row>
     <row r="132" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A132" s="13"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="33"/>
-      <c r="G132" s="33"/>
-      <c r="H132" s="33"/>
-      <c r="I132" s="33"/>
-      <c r="J132" s="33"/>
+      <c r="B132" s="29"/>
+      <c r="C132" s="29"/>
+      <c r="D132" s="29"/>
+      <c r="E132" s="29"/>
+      <c r="F132" s="29"/>
+      <c r="G132" s="29"/>
+      <c r="H132" s="29"/>
+      <c r="I132" s="29"/>
+      <c r="J132" s="29"/>
       <c r="K132" s="9"/>
       <c r="L132" s="19"/>
     </row>
     <row r="133" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A133" s="13"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="33"/>
-      <c r="G133" s="33"/>
-      <c r="H133" s="33"/>
-      <c r="I133" s="33"/>
-      <c r="J133" s="33"/>
+      <c r="B133" s="29"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="29"/>
       <c r="K133" s="9"/>
       <c r="L133" s="19"/>
     </row>
     <row r="134" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A134" s="13"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="33"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="33"/>
-      <c r="G134" s="33"/>
-      <c r="H134" s="33"/>
-      <c r="I134" s="33"/>
-      <c r="J134" s="33"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="29"/>
       <c r="K134" s="9"/>
       <c r="L134" s="19"/>
     </row>
     <row r="135" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A135" s="13"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="33"/>
-      <c r="G135" s="33"/>
-      <c r="H135" s="33"/>
-      <c r="I135" s="33"/>
-      <c r="J135" s="33"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="29"/>
       <c r="K135" s="9"/>
       <c r="L135" s="19"/>
     </row>
     <row r="136" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A136" s="13"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="33"/>
-      <c r="G136" s="33"/>
-      <c r="H136" s="33"/>
-      <c r="I136" s="33"/>
-      <c r="J136" s="33"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="29"/>
       <c r="K136" s="9"/>
       <c r="L136" s="19"/>
     </row>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="138" spans="1:12">
       <c r="G138" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H138">
         <v>31</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="139" spans="1:12">
       <c r="G139" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H139">
         <v>13</v>
@@ -5343,6 +5343,254 @@
     <filterColumn colId="8" showButton="0"/>
   </autoFilter>
   <mergeCells count="272">
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="B65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="B59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="H110:J110"/>
+    <mergeCell ref="H111:J111"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H128:J128"/>
+    <mergeCell ref="H129:J129"/>
+    <mergeCell ref="H119:J119"/>
+    <mergeCell ref="H122:J122"/>
+    <mergeCell ref="H123:J123"/>
+    <mergeCell ref="H124:J124"/>
+    <mergeCell ref="H125:J125"/>
+    <mergeCell ref="H112:J112"/>
+    <mergeCell ref="H113:J113"/>
+    <mergeCell ref="H114:J114"/>
+    <mergeCell ref="H117:J117"/>
+    <mergeCell ref="H118:J118"/>
+    <mergeCell ref="H116:J116"/>
+    <mergeCell ref="H115:J115"/>
+    <mergeCell ref="H121:J121"/>
+    <mergeCell ref="H120:J120"/>
+    <mergeCell ref="H135:J135"/>
+    <mergeCell ref="H136:J136"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="B52:G52"/>
+    <mergeCell ref="B53:G53"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B58:G58"/>
+    <mergeCell ref="B60:G60"/>
+    <mergeCell ref="H130:J130"/>
+    <mergeCell ref="H131:J131"/>
+    <mergeCell ref="H132:J132"/>
+    <mergeCell ref="H133:J133"/>
+    <mergeCell ref="H134:J134"/>
+    <mergeCell ref="H126:J126"/>
+    <mergeCell ref="H127:J127"/>
+    <mergeCell ref="B72:G72"/>
+    <mergeCell ref="B90:G90"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B78:G78"/>
+    <mergeCell ref="B79:G79"/>
+    <mergeCell ref="B80:G80"/>
+    <mergeCell ref="B61:G61"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B63:G63"/>
+    <mergeCell ref="B70:G70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B66:G66"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B88:G88"/>
+    <mergeCell ref="B81:G81"/>
+    <mergeCell ref="B82:G82"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="B84:G84"/>
+    <mergeCell ref="B85:G85"/>
+    <mergeCell ref="B89:G89"/>
+    <mergeCell ref="B74:G74"/>
+    <mergeCell ref="B76:G76"/>
+    <mergeCell ref="B77:G77"/>
+    <mergeCell ref="B75:G75"/>
+    <mergeCell ref="B99:G99"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B106:G106"/>
+    <mergeCell ref="B107:G107"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="B94:G94"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="B97:G97"/>
+    <mergeCell ref="B98:G98"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B128:G128"/>
+    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B119:G119"/>
+    <mergeCell ref="B122:G122"/>
+    <mergeCell ref="B123:G123"/>
+    <mergeCell ref="B124:G124"/>
+    <mergeCell ref="B125:G125"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B113:G113"/>
+    <mergeCell ref="B114:G114"/>
+    <mergeCell ref="B117:G117"/>
+    <mergeCell ref="B118:G118"/>
+    <mergeCell ref="B108:G108"/>
+    <mergeCell ref="B109:G109"/>
+    <mergeCell ref="B110:G110"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B116:G116"/>
+    <mergeCell ref="B115:G115"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B120:G120"/>
     <mergeCell ref="B13:G13"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="B135:G135"/>
@@ -5367,254 +5615,6 @@
     <mergeCell ref="B134:G134"/>
     <mergeCell ref="B126:G126"/>
     <mergeCell ref="B127:G127"/>
-    <mergeCell ref="B128:G128"/>
-    <mergeCell ref="B104:G104"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B119:G119"/>
-    <mergeCell ref="B122:G122"/>
-    <mergeCell ref="B123:G123"/>
-    <mergeCell ref="B124:G124"/>
-    <mergeCell ref="B125:G125"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B113:G113"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B117:G117"/>
-    <mergeCell ref="B118:G118"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B109:G109"/>
-    <mergeCell ref="B110:G110"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B116:G116"/>
-    <mergeCell ref="B115:G115"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B120:G120"/>
-    <mergeCell ref="B99:G99"/>
-    <mergeCell ref="B100:G100"/>
-    <mergeCell ref="B105:G105"/>
-    <mergeCell ref="B106:G106"/>
-    <mergeCell ref="B107:G107"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="B98:G98"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B79:G79"/>
-    <mergeCell ref="B80:G80"/>
-    <mergeCell ref="B61:G61"/>
-    <mergeCell ref="B62:G62"/>
-    <mergeCell ref="B63:G63"/>
-    <mergeCell ref="B70:G70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B86:G86"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B88:G88"/>
-    <mergeCell ref="B81:G81"/>
-    <mergeCell ref="B82:G82"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B85:G85"/>
-    <mergeCell ref="B89:G89"/>
-    <mergeCell ref="H135:J135"/>
-    <mergeCell ref="H136:J136"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B47:G47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="B52:G52"/>
-    <mergeCell ref="B53:G53"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B56:G56"/>
-    <mergeCell ref="B57:G57"/>
-    <mergeCell ref="B58:G58"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="H130:J130"/>
-    <mergeCell ref="H131:J131"/>
-    <mergeCell ref="H132:J132"/>
-    <mergeCell ref="H133:J133"/>
-    <mergeCell ref="H134:J134"/>
-    <mergeCell ref="H126:J126"/>
-    <mergeCell ref="H127:J127"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="H128:J128"/>
-    <mergeCell ref="H129:J129"/>
-    <mergeCell ref="H119:J119"/>
-    <mergeCell ref="H122:J122"/>
-    <mergeCell ref="H123:J123"/>
-    <mergeCell ref="H124:J124"/>
-    <mergeCell ref="H125:J125"/>
-    <mergeCell ref="H112:J112"/>
-    <mergeCell ref="H113:J113"/>
-    <mergeCell ref="H114:J114"/>
-    <mergeCell ref="H117:J117"/>
-    <mergeCell ref="H118:J118"/>
-    <mergeCell ref="H116:J116"/>
-    <mergeCell ref="H115:J115"/>
-    <mergeCell ref="H121:J121"/>
-    <mergeCell ref="H120:J120"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="H109:J109"/>
-    <mergeCell ref="H110:J110"/>
-    <mergeCell ref="H111:J111"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="B74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="B76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="B77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="B75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="H97:J97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="B59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="B65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5723,49 +5723,49 @@
     </row>
     <row r="12" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B13" s="8"/>
     </row>
     <row r="14" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="A14" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B14" s="8"/>
     </row>
     <row r="15" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="10" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B15" s="8"/>
     </row>
     <row r="16" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="A16" s="10" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B16" s="8"/>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B17" s="8"/>
     </row>
     <row r="18" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B19" s="8"/>
     </row>
@@ -5810,398 +5810,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="78"/>
       <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="33"/>
+      <c r="E1" s="29"/>
       <c r="F1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="43" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="43" t="s">
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" ht="45" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="84" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="85" t="s">
+      <c r="D5" s="79"/>
+      <c r="E5" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="43" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="33" t="s">
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="43" t="s">
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="33" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A8" s="83" t="s">
+      <c r="A8" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="43" t="s">
+      <c r="B8" s="82"/>
+      <c r="C8" s="60" t="s">
         <v>115</v>
       </c>
       <c r="D8" s="81"/>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="29" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="73"/>
+      <c r="E9" s="29" t="s">
+        <v>358</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A10" s="83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="84"/>
+      <c r="C10" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="81"/>
+      <c r="E10" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A11" s="85"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="60"/>
+      <c r="E11" s="29" t="s">
+        <v>359</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="1:8" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A12" s="71" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="71"/>
+      <c r="C12" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="94"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A13" s="71"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="82"/>
-      <c r="E9" s="33" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" spans="1:8" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A14" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A10" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A11" s="67"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="33" t="s">
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-    </row>
-    <row r="12" spans="1:8" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A12" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="33" t="s">
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A16" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="60" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="73"/>
+      <c r="E16" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="60" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A18" s="71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="73"/>
+      <c r="E18" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="73"/>
+      <c r="E19" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-    </row>
-    <row r="14" spans="1:8" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A14" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="70"/>
-      <c r="C14" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="32" t="s">
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A20" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="71"/>
+      <c r="C20" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="33" t="s">
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="71"/>
+      <c r="B21" s="71"/>
+      <c r="C21" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A22" s="71"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="49" t="s">
         <v>365</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A16" s="87" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A17" s="71"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A18" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A20" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="33" t="s">
-        <v>363</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-    </row>
-    <row r="22" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="40" t="s">
-        <v>368</v>
-      </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="90"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="67"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A25" s="91"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="93"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="70"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickTop="1" thickBot="1"/>
     <row r="27" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A27" s="73" t="s">
-        <v>369</v>
-      </c>
-      <c r="B27" s="74"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
+      <c r="A27" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="90"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A28" s="76"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="78"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="93"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A24:H25"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A20:B22"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A27:H28"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:H4"/>
     <mergeCell ref="G1:H1"/>
@@ -6218,31 +6230,19 @@
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:H5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="A27:H28"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A24:H25"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="A20:B22"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
